--- a/经济数据分析.xlsx
+++ b/经济数据分析.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -18,14 +18,50 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7万亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54万亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>177万亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +89,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -331,12 +367,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>